--- a/src/main/resources/excel/filter_template.xlsx
+++ b/src/main/resources/excel/filter_template.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B488AA97-4C6D-40C4-868B-39F7D4C8808B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEFB1FD-116E-44F1-9618-40424E0AE5B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="7125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +51,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="A7")</t>
+jx:area(lastCell="C7")</t>
         </r>
       </text>
     </comment>
@@ -187,10 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -475,33 +482,36 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
